--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -38,9 +38,6 @@
     <t>timbre</t>
   </si>
   <si>
-    <t>heared_pitch</t>
-  </si>
-  <si>
     <t>answered_pitch</t>
   </si>
   <si>
@@ -257,9 +254,6 @@
     <t>sin</t>
   </si>
   <si>
-    <t>donne en notes en mib</t>
-  </si>
-  <si>
     <t>d#</t>
   </si>
   <si>
@@ -269,12 +263,6 @@
     <t>f6</t>
   </si>
   <si>
-    <t>trompette</t>
-  </si>
-  <si>
-    <t>notes donnees en sib</t>
-  </si>
-  <si>
     <t>f#2</t>
   </si>
   <si>
@@ -285,6 +273,45 @@
   </si>
   <si>
     <t>remarks</t>
+  </si>
+  <si>
+    <t>g#7</t>
+  </si>
+  <si>
+    <t>e7</t>
+  </si>
+  <si>
+    <t>c#7</t>
+  </si>
+  <si>
+    <t>f#6</t>
+  </si>
+  <si>
+    <t>incomplet</t>
+  </si>
+  <si>
+    <t>guitar</t>
+  </si>
+  <si>
+    <t>violin</t>
+  </si>
+  <si>
+    <t>drums</t>
+  </si>
+  <si>
+    <t>trumpet</t>
+  </si>
+  <si>
+    <t>donne en notes en mib--&gt; tout est descendu d'un demi ton</t>
+  </si>
+  <si>
+    <t>gb</t>
+  </si>
+  <si>
+    <t>notes donnees en sib --&gt; tout monter d'1 ton</t>
+  </si>
+  <si>
+    <t>heard_pitch</t>
   </si>
 </sst>
 </file>
@@ -599,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F361"/>
+  <dimension ref="A1:G469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,7 +638,7 @@
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -625,13 +652,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -639,302 +666,302 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
         <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
         <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
         <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
         <v>38</v>
-      </c>
-      <c r="E28" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
         <v>29</v>
-      </c>
-      <c r="E33" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -942,299 +969,299 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -1242,299 +1269,299 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D94" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E105" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -1542,299 +1569,299 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D111" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D122" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -1842,296 +1869,296 @@
         <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C146" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D146" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E147" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D154" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D155" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E155" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C158" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D159" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D160" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D162" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D163" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E166" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="167" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D167" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E167" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="168" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E168" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="169" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E169" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="170" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D170" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D171" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E171" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D172" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E172" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="174" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E174" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E175" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D176" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D178" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E178" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D179" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E179" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D181" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -2139,1523 +2166,2653 @@
         <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C182" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D182" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D183" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E183" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D184" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E185" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D186" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E186" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D187" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E187" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D189" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E189" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D190" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D191" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E191" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D192" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C194" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D194" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E194" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="195" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="196" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E196" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D197" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D198" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D199" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E199" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="200" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D200" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D201" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E201" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="202" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D202" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D203" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E203" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D204" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E204" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D205" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C206" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D206" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D207" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D208" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E208" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D209" t="s">
+        <v>14</v>
+      </c>
+      <c r="E209" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D210" t="s">
+        <v>73</v>
+      </c>
+      <c r="E210" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D211" t="s">
+        <v>46</v>
+      </c>
+      <c r="E211" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D213" t="s">
+        <v>24</v>
+      </c>
+      <c r="E213" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D214" t="s">
+        <v>70</v>
+      </c>
+      <c r="E214" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D215" t="s">
+        <v>6</v>
+      </c>
+      <c r="E215" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D216" t="s">
+        <v>21</v>
+      </c>
+      <c r="E216" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D217" t="s">
+        <v>61</v>
+      </c>
+      <c r="E217" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>7</v>
+      </c>
+      <c r="B218" t="s">
+        <v>44</v>
+      </c>
+      <c r="C218" t="s">
+        <v>74</v>
+      </c>
+      <c r="D218" t="s">
+        <v>27</v>
+      </c>
+      <c r="E218" t="s">
+        <v>29</v>
+      </c>
+      <c r="F218" t="s">
+        <v>91</v>
+      </c>
+      <c r="G218" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D219" t="s">
+        <v>59</v>
+      </c>
+      <c r="E219" t="s">
+        <v>13</v>
+      </c>
+      <c r="G219" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D220" t="s">
+        <v>40</v>
+      </c>
+      <c r="E220" t="s">
+        <v>92</v>
+      </c>
+      <c r="G220" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D221" t="s">
+        <v>22</v>
+      </c>
+      <c r="E221" t="s">
+        <v>34</v>
+      </c>
+      <c r="G221" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D222" t="s">
+        <v>26</v>
+      </c>
+      <c r="E222" t="s">
+        <v>25</v>
+      </c>
+      <c r="G222" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" t="s">
+        <v>7</v>
+      </c>
+      <c r="G223" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D224" t="s">
+        <v>24</v>
+      </c>
+      <c r="E224" t="s">
+        <v>15</v>
+      </c>
+      <c r="G224" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D225" t="s">
+        <v>16</v>
+      </c>
+      <c r="E225" t="s">
+        <v>38</v>
+      </c>
+      <c r="G225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D226" t="s">
+        <v>45</v>
+      </c>
+      <c r="E226" t="s">
+        <v>25</v>
+      </c>
+      <c r="G226" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D227" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D209" t="s">
-        <v>15</v>
-      </c>
-      <c r="E209" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D210" t="s">
-        <v>74</v>
-      </c>
-      <c r="E210" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D211" t="s">
-        <v>47</v>
-      </c>
-      <c r="E211" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D212" t="s">
-        <v>65</v>
-      </c>
-      <c r="E212" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D213" t="s">
+      <c r="E227" t="s">
+        <v>30</v>
+      </c>
+      <c r="G227" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="228" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D228" t="s">
+        <v>21</v>
+      </c>
+      <c r="E228" t="s">
+        <v>29</v>
+      </c>
+      <c r="G228" t="s">
         <v>25</v>
       </c>
-      <c r="E213" t="s">
+    </row>
+    <row r="229" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D229" t="s">
+        <v>20</v>
+      </c>
+      <c r="E229" t="s">
+        <v>17</v>
+      </c>
+      <c r="G229" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="230" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C230" t="s">
+        <v>4</v>
+      </c>
+      <c r="D230" t="s">
+        <v>49</v>
+      </c>
+      <c r="E230" t="s">
+        <v>25</v>
+      </c>
+      <c r="G230" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D231" t="s">
+        <v>40</v>
+      </c>
+      <c r="E231" t="s">
+        <v>13</v>
+      </c>
+      <c r="G231" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="232" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D232" t="s">
+        <v>19</v>
+      </c>
+      <c r="E232" t="s">
+        <v>9</v>
+      </c>
+      <c r="G232" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D233" t="s">
+        <v>45</v>
+      </c>
+      <c r="E233" t="s">
+        <v>13</v>
+      </c>
+      <c r="G233" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="234" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D234" t="s">
+        <v>16</v>
+      </c>
+      <c r="E234" t="s">
+        <v>13</v>
+      </c>
+      <c r="G234" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="235" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D235" t="s">
+        <v>18</v>
+      </c>
+      <c r="E235" t="s">
+        <v>25</v>
+      </c>
+      <c r="G235" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D236" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D214" t="s">
-        <v>71</v>
-      </c>
-      <c r="E214" t="s">
+      <c r="E236" t="s">
+        <v>15</v>
+      </c>
+      <c r="G236" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D237" t="s">
+        <v>24</v>
+      </c>
+      <c r="E237" t="s">
+        <v>38</v>
+      </c>
+      <c r="G237" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D238" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" t="s">
+        <v>9</v>
+      </c>
+      <c r="G238" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D239" t="s">
+        <v>48</v>
+      </c>
+      <c r="E239" t="s">
+        <v>17</v>
+      </c>
+      <c r="G239" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="240" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D240" t="s">
+        <v>20</v>
+      </c>
+      <c r="E240" t="s">
+        <v>25</v>
+      </c>
+      <c r="G240" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D241" t="s">
+        <v>21</v>
+      </c>
+      <c r="E241" t="s">
+        <v>13</v>
+      </c>
+      <c r="G241" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C242" t="s">
+        <v>44</v>
+      </c>
+      <c r="D242" t="s">
+        <v>76</v>
+      </c>
+      <c r="E242" t="s">
+        <v>17</v>
+      </c>
+      <c r="G242" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D243" t="s">
+        <v>49</v>
+      </c>
+      <c r="E243" t="s">
+        <v>9</v>
+      </c>
+      <c r="G243" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D244" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D215" t="s">
-        <v>7</v>
-      </c>
-      <c r="E215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D216" t="s">
-        <v>22</v>
-      </c>
-      <c r="E216" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D217" t="s">
-        <v>62</v>
-      </c>
-      <c r="E217" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218">
-        <v>7</v>
-      </c>
-      <c r="B218" t="s">
-        <v>45</v>
-      </c>
-      <c r="C218" t="s">
+      <c r="E244" t="s">
+        <v>17</v>
+      </c>
+      <c r="G244" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D245" t="s">
+        <v>48</v>
+      </c>
+      <c r="E245" t="s">
+        <v>9</v>
+      </c>
+      <c r="G245" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D246" t="s">
+        <v>59</v>
+      </c>
+      <c r="E246" t="s">
+        <v>38</v>
+      </c>
+      <c r="G246" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D247" t="s">
+        <v>56</v>
+      </c>
+      <c r="E247" t="s">
+        <v>25</v>
+      </c>
+      <c r="G247" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D248" t="s">
+        <v>77</v>
+      </c>
+      <c r="E248" t="s">
+        <v>25</v>
+      </c>
+      <c r="G248" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D249" t="s">
+        <v>36</v>
+      </c>
+      <c r="E249" t="s">
+        <v>15</v>
+      </c>
+      <c r="G249" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D250" t="s">
+        <v>20</v>
+      </c>
+      <c r="E250" t="s">
+        <v>23</v>
+      </c>
+      <c r="G250" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D251" t="s">
+        <v>51</v>
+      </c>
+      <c r="E251" t="s">
+        <v>42</v>
+      </c>
+      <c r="G251" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D252" t="s">
+        <v>50</v>
+      </c>
+      <c r="E252" t="s">
+        <v>15</v>
+      </c>
+      <c r="G252" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D253" t="s">
+        <v>19</v>
+      </c>
+      <c r="E253" t="s">
+        <v>7</v>
+      </c>
+      <c r="G253" t="s">
         <v>75</v>
       </c>
-      <c r="D218" t="s">
-        <v>28</v>
-      </c>
-      <c r="E218" t="s">
-        <v>31</v>
-      </c>
-      <c r="F218" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D219" t="s">
-        <v>60</v>
-      </c>
-      <c r="E219" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D220" t="s">
-        <v>41</v>
-      </c>
-      <c r="E220" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D221" t="s">
-        <v>23</v>
-      </c>
-      <c r="E221" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D222" t="s">
-        <v>27</v>
-      </c>
-      <c r="E222" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D223" t="s">
-        <v>29</v>
-      </c>
-      <c r="E223" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D224" t="s">
-        <v>25</v>
-      </c>
-      <c r="E224" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="225" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D225" t="s">
-        <v>17</v>
-      </c>
-      <c r="E225" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="226" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D226" t="s">
-        <v>46</v>
-      </c>
-      <c r="E226" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="227" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D227" t="s">
-        <v>32</v>
-      </c>
-      <c r="E227" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="228" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D228" t="s">
-        <v>22</v>
-      </c>
-      <c r="E228" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="229" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D229" t="s">
-        <v>21</v>
-      </c>
-      <c r="E229" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="230" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C230" t="s">
-        <v>5</v>
-      </c>
-      <c r="D230" t="s">
-        <v>50</v>
-      </c>
-      <c r="E230" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="231" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D231" t="s">
-        <v>41</v>
-      </c>
-      <c r="E231" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="232" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D232" t="s">
-        <v>20</v>
-      </c>
-      <c r="E232" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="233" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D233" t="s">
-        <v>46</v>
-      </c>
-      <c r="E233" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="234" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D234" t="s">
-        <v>17</v>
-      </c>
-      <c r="E234" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="235" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D235" t="s">
-        <v>19</v>
-      </c>
-      <c r="E235" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="236" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D236" t="s">
-        <v>32</v>
-      </c>
-      <c r="E236" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="237" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D237" t="s">
-        <v>25</v>
-      </c>
-      <c r="E237" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="238" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D238" t="s">
-        <v>29</v>
-      </c>
-      <c r="E238" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="239" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D239" t="s">
-        <v>49</v>
-      </c>
-      <c r="E239" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="240" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D240" t="s">
-        <v>21</v>
-      </c>
-      <c r="E240" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D241" t="s">
-        <v>22</v>
-      </c>
-      <c r="E241" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C242" t="s">
-        <v>45</v>
-      </c>
-      <c r="D242" t="s">
-        <v>78</v>
-      </c>
-      <c r="E242" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D243" t="s">
-        <v>50</v>
-      </c>
-      <c r="E243" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D244" t="s">
-        <v>9</v>
-      </c>
-      <c r="E244" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D245" t="s">
-        <v>49</v>
-      </c>
-      <c r="E245" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D246" t="s">
-        <v>60</v>
-      </c>
-      <c r="E246" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D247" t="s">
-        <v>57</v>
-      </c>
-      <c r="E247" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D248" t="s">
-        <v>79</v>
-      </c>
-      <c r="E248" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D249" t="s">
-        <v>37</v>
-      </c>
-      <c r="E249" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D250" t="s">
-        <v>21</v>
-      </c>
-      <c r="E250" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D251" t="s">
-        <v>52</v>
-      </c>
-      <c r="E251" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D252" t="s">
-        <v>51</v>
-      </c>
-      <c r="E252" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D253" t="s">
-        <v>20</v>
-      </c>
-      <c r="E253" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>8</v>
       </c>
       <c r="B254" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C254" t="s">
+        <v>74</v>
+      </c>
+      <c r="D254" t="s">
+        <v>21</v>
+      </c>
+      <c r="E254" t="s">
+        <v>7</v>
+      </c>
+      <c r="F254" t="s">
+        <v>93</v>
+      </c>
+      <c r="G254" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D255" t="s">
+        <v>37</v>
+      </c>
+      <c r="E255" t="s">
+        <v>17</v>
+      </c>
+      <c r="G255" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D256" t="s">
+        <v>39</v>
+      </c>
+      <c r="E256" t="s">
+        <v>25</v>
+      </c>
+      <c r="G256" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D257" t="s">
+        <v>60</v>
+      </c>
+      <c r="E257" t="s">
         <v>75</v>
       </c>
-      <c r="D254" t="s">
+      <c r="G257" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="258" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D258" t="s">
+        <v>32</v>
+      </c>
+      <c r="E258" t="s">
+        <v>15</v>
+      </c>
+      <c r="G258" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="259" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D259" t="s">
+        <v>49</v>
+      </c>
+      <c r="E259" t="s">
+        <v>30</v>
+      </c>
+      <c r="G259" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="260" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D260" t="s">
+        <v>14</v>
+      </c>
+      <c r="E260" t="s">
+        <v>15</v>
+      </c>
+      <c r="G260" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="261" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D261" t="s">
+        <v>31</v>
+      </c>
+      <c r="E261" t="s">
+        <v>9</v>
+      </c>
+      <c r="G261" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="262" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D262" t="s">
+        <v>41</v>
+      </c>
+      <c r="E262" t="s">
+        <v>30</v>
+      </c>
+      <c r="G262" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D263" t="s">
+        <v>20</v>
+      </c>
+      <c r="E263" t="s">
+        <v>17</v>
+      </c>
+      <c r="G263" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D264" t="s">
+        <v>54</v>
+      </c>
+      <c r="E264" t="s">
+        <v>17</v>
+      </c>
+      <c r="G264" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D265" t="s">
+        <v>40</v>
+      </c>
+      <c r="E265" t="s">
+        <v>25</v>
+      </c>
+      <c r="G265" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="266" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C266" t="s">
+        <v>4</v>
+      </c>
+      <c r="D266" t="s">
+        <v>24</v>
+      </c>
+      <c r="E266" t="s">
+        <v>17</v>
+      </c>
+      <c r="G266" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D267" t="s">
+        <v>31</v>
+      </c>
+      <c r="E267" t="s">
+        <v>25</v>
+      </c>
+      <c r="G267" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="268" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D268" t="s">
+        <v>14</v>
+      </c>
+      <c r="E268" t="s">
+        <v>13</v>
+      </c>
+      <c r="G268" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D269" t="s">
+        <v>36</v>
+      </c>
+      <c r="E269" t="s">
+        <v>17</v>
+      </c>
+      <c r="G269" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D270" t="s">
+        <v>47</v>
+      </c>
+      <c r="E270" t="s">
+        <v>17</v>
+      </c>
+      <c r="G270" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D271" t="s">
+        <v>46</v>
+      </c>
+      <c r="E271" t="s">
+        <v>9</v>
+      </c>
+      <c r="G271" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="272" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D272" t="s">
+        <v>8</v>
+      </c>
+      <c r="E272" t="s">
+        <v>15</v>
+      </c>
+      <c r="G272" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="273" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D273" t="s">
+        <v>26</v>
+      </c>
+      <c r="E273" t="s">
+        <v>30</v>
+      </c>
+      <c r="G273" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D274" t="s">
+        <v>16</v>
+      </c>
+      <c r="E274" t="s">
+        <v>13</v>
+      </c>
+      <c r="G274" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D275" t="s">
+        <v>18</v>
+      </c>
+      <c r="E275" t="s">
+        <v>17</v>
+      </c>
+      <c r="G275" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D276" t="s">
+        <v>12</v>
+      </c>
+      <c r="E276" t="s">
+        <v>23</v>
+      </c>
+      <c r="G276" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D277" t="s">
+        <v>32</v>
+      </c>
+      <c r="E277" t="s">
+        <v>25</v>
+      </c>
+      <c r="G277" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="278" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C278" t="s">
+        <v>58</v>
+      </c>
+      <c r="D278" t="s">
+        <v>18</v>
+      </c>
+      <c r="E278" t="s">
+        <v>9</v>
+      </c>
+      <c r="G278" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="279" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D279" t="s">
+        <v>56</v>
+      </c>
+      <c r="E279" t="s">
+        <v>23</v>
+      </c>
+      <c r="G279" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D280" t="s">
+        <v>63</v>
+      </c>
+      <c r="E280" t="s">
+        <v>17</v>
+      </c>
+      <c r="G280" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D281" t="s">
+        <v>27</v>
+      </c>
+      <c r="E281" t="s">
+        <v>13</v>
+      </c>
+      <c r="G281" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D282" t="s">
+        <v>78</v>
+      </c>
+      <c r="E282" t="s">
+        <v>15</v>
+      </c>
+      <c r="G282" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="283" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D283" t="s">
+        <v>40</v>
+      </c>
+      <c r="E283" t="s">
+        <v>17</v>
+      </c>
+      <c r="G283" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="284" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D284" t="s">
+        <v>41</v>
+      </c>
+      <c r="E284" t="s">
+        <v>15</v>
+      </c>
+      <c r="G284" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="285" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D285" t="s">
+        <v>70</v>
+      </c>
+      <c r="E285" t="s">
+        <v>7</v>
+      </c>
+      <c r="G285" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="286" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D286" t="s">
+        <v>62</v>
+      </c>
+      <c r="E286" t="s">
+        <v>9</v>
+      </c>
+      <c r="G286" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="287" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D287" t="s">
+        <v>32</v>
+      </c>
+      <c r="E287" t="s">
+        <v>30</v>
+      </c>
+      <c r="G287" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="288" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D288" t="s">
+        <v>66</v>
+      </c>
+      <c r="E288" t="s">
+        <v>25</v>
+      </c>
+      <c r="G288" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D289" t="s">
+        <v>6</v>
+      </c>
+      <c r="E289" t="s">
+        <v>13</v>
+      </c>
+      <c r="G289" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>9</v>
+      </c>
+      <c r="B290" t="s">
+        <v>4</v>
+      </c>
+      <c r="C290" t="s">
+        <v>5</v>
+      </c>
+      <c r="D290" t="s">
+        <v>18</v>
+      </c>
+      <c r="E290" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D291" t="s">
+        <v>31</v>
+      </c>
+      <c r="E291" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D292" t="s">
+        <v>71</v>
+      </c>
+      <c r="E292" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D293" t="s">
+        <v>51</v>
+      </c>
+      <c r="E293" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D294" t="s">
+        <v>47</v>
+      </c>
+      <c r="E294" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D295" t="s">
+        <v>27</v>
+      </c>
+      <c r="E295" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D296" t="s">
+        <v>67</v>
+      </c>
+      <c r="E296" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D297" t="s">
+        <v>14</v>
+      </c>
+      <c r="E297" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D298" t="s">
+        <v>60</v>
+      </c>
+      <c r="E298" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D299" t="s">
+        <v>54</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D300" t="s">
+        <v>21</v>
+      </c>
+      <c r="E300" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D301" t="s">
         <v>22</v>
       </c>
-      <c r="E254" t="s">
-        <v>35</v>
-      </c>
-      <c r="F254" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D255" t="s">
-        <v>38</v>
-      </c>
-      <c r="E255" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D256" t="s">
-        <v>40</v>
-      </c>
-      <c r="E256" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="257" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D257" t="s">
-        <v>61</v>
-      </c>
-      <c r="E257" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="258" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D258" t="s">
-        <v>33</v>
-      </c>
-      <c r="E258" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="259" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D259" t="s">
-        <v>50</v>
-      </c>
-      <c r="E259" t="s">
+      <c r="E301" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C302" t="s">
+        <v>4</v>
+      </c>
+      <c r="D302" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="260" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D260" t="s">
-        <v>15</v>
-      </c>
-      <c r="E260" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="261" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D261" t="s">
-        <v>32</v>
-      </c>
-      <c r="E261" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="262" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D262" t="s">
-        <v>42</v>
-      </c>
-      <c r="E262" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="263" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D263" t="s">
-        <v>21</v>
-      </c>
-      <c r="E263" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="264" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D264" t="s">
-        <v>55</v>
-      </c>
-      <c r="E264" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="265" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D265" t="s">
-        <v>41</v>
-      </c>
-      <c r="E265" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="266" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C266" t="s">
-        <v>5</v>
-      </c>
-      <c r="D266" t="s">
+      <c r="E302" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D303" t="s">
+        <v>56</v>
+      </c>
+      <c r="E303" t="s">
         <v>25</v>
       </c>
-      <c r="E266" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="267" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D267" t="s">
-        <v>32</v>
-      </c>
-      <c r="E267" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="268" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D268" t="s">
-        <v>15</v>
-      </c>
-      <c r="E268" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="269" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D269" t="s">
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D304" t="s">
         <v>37</v>
       </c>
-      <c r="E269" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="270" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D270" t="s">
-        <v>48</v>
-      </c>
-      <c r="E270" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="271" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D271" t="s">
-        <v>47</v>
-      </c>
-      <c r="E271" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="272" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D272" t="s">
-        <v>9</v>
-      </c>
-      <c r="E272" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="273" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D273" t="s">
-        <v>27</v>
-      </c>
-      <c r="E273" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="274" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D274" t="s">
-        <v>17</v>
-      </c>
-      <c r="E274" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="275" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D275" t="s">
-        <v>19</v>
-      </c>
-      <c r="E275" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="276" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D276" t="s">
-        <v>13</v>
-      </c>
-      <c r="E276" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="277" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D277" t="s">
-        <v>33</v>
-      </c>
-      <c r="E277" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="278" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C278" t="s">
-        <v>59</v>
-      </c>
-      <c r="D278" t="s">
-        <v>19</v>
-      </c>
-      <c r="E278" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="279" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D279" t="s">
-        <v>57</v>
-      </c>
-      <c r="E279" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="280" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D280" t="s">
-        <v>64</v>
-      </c>
-      <c r="E280" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="281" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D281" t="s">
-        <v>28</v>
-      </c>
-      <c r="E281" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="282" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D282" t="s">
-        <v>82</v>
-      </c>
-      <c r="E282" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="283" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D283" t="s">
-        <v>41</v>
-      </c>
-      <c r="E283" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="284" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D284" t="s">
-        <v>42</v>
-      </c>
-      <c r="E284" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="285" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D285" t="s">
-        <v>71</v>
-      </c>
-      <c r="E285" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="286" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D286" t="s">
-        <v>63</v>
-      </c>
-      <c r="E286" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="287" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D287" t="s">
-        <v>33</v>
-      </c>
-      <c r="E287" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="288" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D288" t="s">
-        <v>67</v>
-      </c>
-      <c r="E288" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D289" t="s">
-        <v>7</v>
-      </c>
-      <c r="E289" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A290">
-        <v>9</v>
-      </c>
-      <c r="B290" t="s">
-        <v>5</v>
-      </c>
-      <c r="C290" t="s">
-        <v>6</v>
-      </c>
-      <c r="D290" t="s">
-        <v>19</v>
-      </c>
-      <c r="E290" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D291" t="s">
-        <v>32</v>
-      </c>
-      <c r="E291" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D292" t="s">
-        <v>72</v>
-      </c>
-      <c r="E292" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D293" t="s">
-        <v>52</v>
-      </c>
-      <c r="E293" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D294" t="s">
-        <v>48</v>
-      </c>
-      <c r="E294" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D295" t="s">
-        <v>28</v>
-      </c>
-      <c r="E295" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D296" t="s">
-        <v>68</v>
-      </c>
-      <c r="E296" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D297" t="s">
-        <v>15</v>
-      </c>
-      <c r="E297" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D298" t="s">
-        <v>61</v>
-      </c>
-      <c r="E298" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D299" t="s">
-        <v>55</v>
-      </c>
-      <c r="E299" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D300" t="s">
-        <v>22</v>
-      </c>
-      <c r="E300" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D301" t="s">
-        <v>23</v>
-      </c>
-      <c r="E301" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C302" t="s">
-        <v>5</v>
-      </c>
-      <c r="D302" t="s">
-        <v>13</v>
-      </c>
-      <c r="E302" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D303" t="s">
-        <v>57</v>
-      </c>
-      <c r="E303" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D304" t="s">
-        <v>38</v>
-      </c>
       <c r="E304" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D305" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E305" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="306" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D306" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E306" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="307" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D307" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E307" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="308" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D308" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E308" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="309" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D309" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E309" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D310" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E310" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="311" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D311" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E311" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D312" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E312" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="313" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D313" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E313" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="314" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C314" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D314" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E314" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D315" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E315" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D316" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E316" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D317" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E317" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="318" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D318" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E318" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D319" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E319" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="320" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D320" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E320" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D321" t="s">
+        <v>37</v>
+      </c>
+      <c r="E321" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D322" t="s">
+        <v>26</v>
+      </c>
+      <c r="E322" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D323" t="s">
+        <v>12</v>
+      </c>
+      <c r="E323" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D324" t="s">
+        <v>32</v>
+      </c>
+      <c r="E324" t="s">
         <v>38</v>
       </c>
-      <c r="E321" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D322" t="s">
-        <v>27</v>
-      </c>
-      <c r="E322" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D323" t="s">
-        <v>13</v>
-      </c>
-      <c r="E323" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D324" t="s">
-        <v>33</v>
-      </c>
-      <c r="E324" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D325" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E325" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>10</v>
       </c>
       <c r="B326" t="s">
+        <v>90</v>
+      </c>
+      <c r="C326" t="s">
+        <v>74</v>
+      </c>
+      <c r="D326" t="s">
+        <v>54</v>
+      </c>
+      <c r="E326" t="s">
+        <v>13</v>
+      </c>
+      <c r="F326" t="s">
         <v>80</v>
       </c>
-      <c r="C326" t="s">
+      <c r="G326" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D327" t="s">
+        <v>21</v>
+      </c>
+      <c r="E327" t="s">
+        <v>9</v>
+      </c>
+      <c r="G327" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D328" t="s">
+        <v>60</v>
+      </c>
+      <c r="E328" t="s">
+        <v>15</v>
+      </c>
+      <c r="G328" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D329" t="s">
+        <v>67</v>
+      </c>
+      <c r="E329" t="s">
+        <v>34</v>
+      </c>
+      <c r="G329" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D330" t="s">
+        <v>18</v>
+      </c>
+      <c r="E330" t="s">
+        <v>23</v>
+      </c>
+      <c r="G330" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D331" t="s">
+        <v>37</v>
+      </c>
+      <c r="E331" t="s">
+        <v>68</v>
+      </c>
+      <c r="G331" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D332" t="s">
+        <v>40</v>
+      </c>
+      <c r="E332" t="s">
+        <v>75</v>
+      </c>
+      <c r="G332" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D333" t="s">
+        <v>22</v>
+      </c>
+      <c r="E333" t="s">
+        <v>17</v>
+      </c>
+      <c r="G333" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D334" t="s">
+        <v>56</v>
+      </c>
+      <c r="E334" t="s">
+        <v>17</v>
+      </c>
+      <c r="G334" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D335" t="s">
+        <v>71</v>
+      </c>
+      <c r="E335" t="s">
+        <v>17</v>
+      </c>
+      <c r="G335" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D336" t="s">
+        <v>31</v>
+      </c>
+      <c r="E336" t="s">
+        <v>13</v>
+      </c>
+      <c r="G336" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D337" t="s">
+        <v>27</v>
+      </c>
+      <c r="E337" t="s">
+        <v>30</v>
+      </c>
+      <c r="G337" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="338" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C338" t="s">
+        <v>4</v>
+      </c>
+      <c r="D338" t="s">
+        <v>22</v>
+      </c>
+      <c r="E338" t="s">
+        <v>13</v>
+      </c>
+      <c r="G338" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D339" t="s">
+        <v>41</v>
+      </c>
+      <c r="E339" t="s">
+        <v>75</v>
+      </c>
+      <c r="G339" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="340" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D340" t="s">
+        <v>20</v>
+      </c>
+      <c r="E340" t="s">
+        <v>17</v>
+      </c>
+      <c r="G340" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="341" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D341" t="s">
+        <v>54</v>
+      </c>
+      <c r="E341" t="s">
+        <v>7</v>
+      </c>
+      <c r="G341" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="342" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D342" t="s">
+        <v>18</v>
+      </c>
+      <c r="E342" t="s">
+        <v>75</v>
+      </c>
+      <c r="G342" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="343" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D343" t="s">
+        <v>37</v>
+      </c>
+      <c r="E343" t="s">
+        <v>9</v>
+      </c>
+      <c r="G343" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="344" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D344" t="s">
+        <v>36</v>
+      </c>
+      <c r="E344" t="s">
+        <v>23</v>
+      </c>
+      <c r="G344" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D345" t="s">
+        <v>47</v>
+      </c>
+      <c r="E345" t="s">
+        <v>23</v>
+      </c>
+      <c r="G345" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D346" t="s">
+        <v>43</v>
+      </c>
+      <c r="E346" t="s">
+        <v>23</v>
+      </c>
+      <c r="G346" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D347" t="s">
+        <v>56</v>
+      </c>
+      <c r="E347" t="s">
+        <v>13</v>
+      </c>
+      <c r="G347" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D348" t="s">
+        <v>60</v>
+      </c>
+      <c r="E348" t="s">
+        <v>11</v>
+      </c>
+      <c r="G348" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="349" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D349" t="s">
+        <v>49</v>
+      </c>
+      <c r="E349" t="s">
+        <v>17</v>
+      </c>
+      <c r="G349" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="350" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C350" t="s">
+        <v>58</v>
+      </c>
+      <c r="D350" t="s">
+        <v>71</v>
+      </c>
+      <c r="E350" t="s">
+        <v>23</v>
+      </c>
+      <c r="G350" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D351" t="s">
+        <v>18</v>
+      </c>
+      <c r="E351" t="s">
+        <v>11</v>
+      </c>
+      <c r="G351" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="352" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D352" t="s">
+        <v>56</v>
+      </c>
+      <c r="E352" t="s">
+        <v>9</v>
+      </c>
+      <c r="G352" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D353" t="s">
+        <v>70</v>
+      </c>
+      <c r="E353" t="s">
+        <v>75</v>
+      </c>
+      <c r="G353" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D354" t="s">
+        <v>27</v>
+      </c>
+      <c r="E354" t="s">
+        <v>79</v>
+      </c>
+      <c r="G354" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D355" t="s">
+        <v>43</v>
+      </c>
+      <c r="E355" t="s">
+        <v>15</v>
+      </c>
+      <c r="G355" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D356" t="s">
+        <v>24</v>
+      </c>
+      <c r="E356" t="s">
+        <v>13</v>
+      </c>
+      <c r="G356" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D357" t="s">
+        <v>48</v>
+      </c>
+      <c r="E357" t="s">
+        <v>15</v>
+      </c>
+      <c r="G357" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D358" t="s">
+        <v>40</v>
+      </c>
+      <c r="E358" t="s">
+        <v>79</v>
+      </c>
+      <c r="G358" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D359" t="s">
+        <v>62</v>
+      </c>
+      <c r="E359" t="s">
+        <v>75</v>
+      </c>
+      <c r="G359" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D360" t="s">
+        <v>46</v>
+      </c>
+      <c r="E360" t="s">
+        <v>17</v>
+      </c>
+      <c r="G360" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D361" t="s">
+        <v>66</v>
+      </c>
+      <c r="E361" t="s">
+        <v>7</v>
+      </c>
+      <c r="G361" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>11</v>
+      </c>
+      <c r="B362" t="s">
+        <v>87</v>
+      </c>
+      <c r="C362" t="s">
+        <v>74</v>
+      </c>
+      <c r="D362" t="s">
+        <v>22</v>
+      </c>
+      <c r="E362" t="s">
+        <v>34</v>
+      </c>
+      <c r="F362" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D363" t="s">
+        <v>24</v>
+      </c>
+      <c r="E363" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D364" t="s">
+        <v>20</v>
+      </c>
+      <c r="E364" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D365" t="s">
+        <v>26</v>
+      </c>
+      <c r="E365" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D366" t="s">
+        <v>59</v>
+      </c>
+      <c r="E366" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D367" t="s">
+        <v>71</v>
+      </c>
+      <c r="E367" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D368" t="s">
+        <v>54</v>
+      </c>
+      <c r="E368" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="369" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D369" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="370" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D370" t="s">
+        <v>40</v>
+      </c>
+      <c r="E370" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="371" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D371" t="s">
+        <v>31</v>
+      </c>
+      <c r="E371" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="372" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D372" t="s">
+        <v>14</v>
+      </c>
+      <c r="E372" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D373" t="s">
+        <v>36</v>
+      </c>
+      <c r="E373" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C374" t="s">
+        <v>4</v>
+      </c>
+      <c r="D374" t="s">
         <v>6</v>
       </c>
-      <c r="D326" t="s">
+      <c r="E374" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D375" t="s">
+        <v>59</v>
+      </c>
+      <c r="E375" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="376" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D376" t="s">
+        <v>45</v>
+      </c>
+      <c r="E376" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="377" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D377" t="s">
+        <v>22</v>
+      </c>
+      <c r="E377" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D378" t="s">
+        <v>40</v>
+      </c>
+      <c r="E378" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="379" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D379" t="s">
+        <v>16</v>
+      </c>
+      <c r="E379" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="380" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D380" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="381" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D381" t="s">
+        <v>33</v>
+      </c>
+      <c r="E381" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="382" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D382" t="s">
+        <v>24</v>
+      </c>
+      <c r="E382" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="383" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D383" t="s">
+        <v>20</v>
+      </c>
+      <c r="E383" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="384" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D384" t="s">
+        <v>27</v>
+      </c>
+      <c r="E384" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D385" t="s">
+        <v>28</v>
+      </c>
+      <c r="E385" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C386" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>12</v>
+      </c>
+      <c r="B398" t="s">
+        <v>89</v>
+      </c>
+      <c r="C398" t="s">
+        <v>5</v>
+      </c>
+      <c r="D398" t="s">
+        <v>67</v>
+      </c>
+      <c r="E398" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D399" t="s">
+        <v>45</v>
+      </c>
+      <c r="E399" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D400" t="s">
+        <v>22</v>
+      </c>
+      <c r="E400" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="401" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D401" t="s">
+        <v>24</v>
+      </c>
+      <c r="E401" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="402" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D402" t="s">
+        <v>31</v>
+      </c>
+      <c r="E402" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D403" t="s">
+        <v>21</v>
+      </c>
+      <c r="E403" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="404" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D404" t="s">
+        <v>28</v>
+      </c>
+      <c r="E404" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="405" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D405" t="s">
+        <v>40</v>
+      </c>
+      <c r="E405" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="406" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D406" t="s">
+        <v>39</v>
+      </c>
+      <c r="E406" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="407" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D407" t="s">
+        <v>71</v>
+      </c>
+      <c r="E407" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="408" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D408" t="s">
+        <v>12</v>
+      </c>
+      <c r="E408" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="409" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D409" t="s">
+        <v>26</v>
+      </c>
+      <c r="E409" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="410" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C410" t="s">
+        <v>4</v>
+      </c>
+      <c r="D410" t="s">
+        <v>18</v>
+      </c>
+      <c r="E410" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="411" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D411" t="s">
+        <v>37</v>
+      </c>
+      <c r="E411" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="412" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D412" t="s">
+        <v>6</v>
+      </c>
+      <c r="E412" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D413" t="s">
+        <v>12</v>
+      </c>
+      <c r="E413" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="414" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D414" t="s">
+        <v>48</v>
+      </c>
+      <c r="E414" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="415" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D415" t="s">
+        <v>16</v>
+      </c>
+      <c r="E415" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="416" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D416" t="s">
+        <v>45</v>
+      </c>
+      <c r="E416" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="417" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D417" t="s">
+        <v>47</v>
+      </c>
+      <c r="E417" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="418" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D418" t="s">
+        <v>36</v>
+      </c>
+      <c r="E418" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="419" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D419" t="s">
+        <v>28</v>
+      </c>
+      <c r="E419" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="420" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D420" t="s">
+        <v>46</v>
+      </c>
+      <c r="E420" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="421" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D421" t="s">
+        <v>19</v>
+      </c>
+      <c r="E421" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="422" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C422" t="s">
+        <v>35</v>
+      </c>
+      <c r="D422" t="s">
+        <v>6</v>
+      </c>
+      <c r="E422" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="423" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D423" t="s">
+        <v>60</v>
+      </c>
+      <c r="E423" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="424" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D424" t="s">
+        <v>41</v>
+      </c>
+      <c r="E424" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="425" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D425" t="s">
+        <v>59</v>
+      </c>
+      <c r="E425" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="426" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D426" t="s">
+        <v>10</v>
+      </c>
+      <c r="E426" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="427" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D427" t="s">
+        <v>32</v>
+      </c>
+      <c r="E427" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="428" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D428" t="s">
+        <v>37</v>
+      </c>
+      <c r="E428" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="429" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D429" t="s">
+        <v>21</v>
+      </c>
+      <c r="E429" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="430" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D430" t="s">
+        <v>20</v>
+      </c>
+      <c r="E430" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="431" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D431" t="s">
+        <v>56</v>
+      </c>
+      <c r="E431" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="432" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D432" t="s">
+        <v>8</v>
+      </c>
+      <c r="E432" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D433" t="s">
+        <v>27</v>
+      </c>
+      <c r="E433" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>13</v>
+      </c>
+      <c r="B434" t="s">
+        <v>88</v>
+      </c>
+      <c r="C434" t="s">
+        <v>5</v>
+      </c>
+      <c r="D434" t="s">
+        <v>8</v>
+      </c>
+      <c r="E434" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D435" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D436" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D437" t="s">
+        <v>56</v>
+      </c>
+      <c r="E437" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D438" t="s">
+        <v>59</v>
+      </c>
+      <c r="E438" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D439" t="s">
+        <v>24</v>
+      </c>
+      <c r="E439" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D440" t="s">
+        <v>33</v>
+      </c>
+      <c r="E440" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D441" t="s">
+        <v>46</v>
+      </c>
+      <c r="E441" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D442" t="s">
+        <v>16</v>
+      </c>
+      <c r="E442" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D443" t="s">
+        <v>40</v>
+      </c>
+      <c r="E443" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D444" t="s">
+        <v>19</v>
+      </c>
+      <c r="E444" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D445" t="s">
+        <v>6</v>
+      </c>
+      <c r="E445" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C446" t="s">
+        <v>4</v>
+      </c>
+      <c r="D446" t="s">
+        <v>22</v>
+      </c>
+      <c r="E446" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D447" t="s">
+        <v>6</v>
+      </c>
+      <c r="E447" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D448" t="s">
+        <v>20</v>
+      </c>
+      <c r="E448" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="449" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D449" t="s">
+        <v>19</v>
+      </c>
+      <c r="E449" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="450" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D450" t="s">
+        <v>40</v>
+      </c>
+      <c r="E450" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="451" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D451" t="s">
+        <v>28</v>
+      </c>
+      <c r="E451" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="452" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D452" t="s">
+        <v>24</v>
+      </c>
+      <c r="E452" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="453" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D453" t="s">
+        <v>39</v>
+      </c>
+      <c r="E453" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="454" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D454" t="s">
+        <v>21</v>
+      </c>
+      <c r="E454" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="455" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D455" t="s">
+        <v>54</v>
+      </c>
+      <c r="E455" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="456" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D456" t="s">
+        <v>71</v>
+      </c>
+      <c r="E456" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="457" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D457" t="s">
+        <v>12</v>
+      </c>
+      <c r="E457" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="458" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C458" t="s">
+        <v>88</v>
+      </c>
+      <c r="D458" t="s">
+        <v>49</v>
+      </c>
+      <c r="E458" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="459" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D459" t="s">
         <v>55</v>
       </c>
-      <c r="E326" t="s">
-        <v>10</v>
-      </c>
-      <c r="F326" t="s">
+      <c r="E459" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="460" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D460" t="s">
+        <v>82</v>
+      </c>
+      <c r="E460" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="461" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D461" t="s">
+        <v>60</v>
+      </c>
+      <c r="E461" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="462" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D462" t="s">
+        <v>83</v>
+      </c>
+      <c r="E462" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="463" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D463" t="s">
+        <v>22</v>
+      </c>
+      <c r="E463" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="464" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D464" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D327" t="s">
-        <v>22</v>
-      </c>
-      <c r="E327" t="s">
+      <c r="E464" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="465" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D465" t="s">
+        <v>28</v>
+      </c>
+      <c r="E465" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="466" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D466" t="s">
+        <v>85</v>
+      </c>
+      <c r="E466" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="467" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D467" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D328" t="s">
-        <v>61</v>
-      </c>
-      <c r="E328" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D329" t="s">
-        <v>68</v>
-      </c>
-      <c r="E329" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D330" t="s">
-        <v>19</v>
-      </c>
-      <c r="E330" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D331" t="s">
-        <v>38</v>
-      </c>
-      <c r="E331" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D332" t="s">
-        <v>41</v>
-      </c>
-      <c r="E332" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D333" t="s">
-        <v>23</v>
-      </c>
-      <c r="E333" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D334" t="s">
-        <v>57</v>
-      </c>
-      <c r="E334" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D335" t="s">
-        <v>72</v>
-      </c>
-      <c r="E335" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D336" t="s">
-        <v>32</v>
-      </c>
-      <c r="E336" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="337" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D337" t="s">
-        <v>28</v>
-      </c>
-      <c r="E337" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="338" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C338" t="s">
-        <v>5</v>
-      </c>
-      <c r="D338" t="s">
-        <v>23</v>
-      </c>
-      <c r="E338" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="339" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D339" t="s">
-        <v>42</v>
-      </c>
-      <c r="E339" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="340" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D340" t="s">
-        <v>21</v>
-      </c>
-      <c r="E340" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="341" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D341" t="s">
-        <v>55</v>
-      </c>
-      <c r="E341" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="342" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D342" t="s">
-        <v>19</v>
-      </c>
-      <c r="E342" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="343" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D343" t="s">
-        <v>38</v>
-      </c>
-      <c r="E343" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="344" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D344" t="s">
-        <v>37</v>
-      </c>
-      <c r="E344" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="345" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D345" t="s">
-        <v>48</v>
-      </c>
-      <c r="E345" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="346" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D346" t="s">
-        <v>44</v>
-      </c>
-      <c r="E346" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="347" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D347" t="s">
-        <v>57</v>
-      </c>
-      <c r="E347" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="348" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D348" t="s">
-        <v>61</v>
-      </c>
-      <c r="E348" t="s">
+      <c r="E467" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="468" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D468" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="349" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D349" t="s">
-        <v>50</v>
-      </c>
-      <c r="E349" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="350" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C350" t="s">
-        <v>59</v>
-      </c>
-      <c r="D350" t="s">
-        <v>72</v>
-      </c>
-      <c r="E350" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="351" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D351" t="s">
-        <v>19</v>
-      </c>
-      <c r="E351" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="352" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D352" t="s">
-        <v>57</v>
-      </c>
-      <c r="E352" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="353" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D353" t="s">
-        <v>71</v>
-      </c>
-      <c r="E353" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="354" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D354" t="s">
-        <v>28</v>
-      </c>
-      <c r="E354" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="355" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D355" t="s">
-        <v>44</v>
-      </c>
-      <c r="E355" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="356" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D356" t="s">
-        <v>25</v>
-      </c>
-      <c r="E356" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="357" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D357" t="s">
-        <v>49</v>
-      </c>
-      <c r="E357" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="358" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D358" t="s">
-        <v>41</v>
-      </c>
-      <c r="E358" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="359" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D359" t="s">
-        <v>63</v>
-      </c>
-      <c r="E359" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="360" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D360" t="s">
-        <v>47</v>
-      </c>
-      <c r="E360" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="361" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D361" t="s">
+      <c r="E468" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="469" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D469" t="s">
         <v>67</v>
       </c>
-      <c r="E361" t="s">
-        <v>83</v>
+      <c r="E469" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
